--- a/doc/Diplomarbeit_Timetracking_DominikDanner.xlsx
+++ b/doc/Diplomarbeit_Timetracking_DominikDanner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikdanner/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikdanner/Documents/Linzer Technikum/DiplomArbeit/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C68BD4C-D832-DA4F-9A39-297BB44B946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98649BD-3085-C74C-9C06-7170C1DBB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>﻿What</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Hours:</t>
+  </si>
+  <si>
+    <t>Trying to fix incus error(Only 3 VM can be created after that i get error)</t>
+  </si>
+  <si>
+    <t>Febuary 1, 2026</t>
   </si>
 </sst>
 </file>
@@ -342,20 +348,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:E34"/>
+  <dimension ref="C2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,16 +676,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <f>SUM(D6:D34)</f>
         <v>136</v>
       </c>
@@ -702,320 +702,331 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="4">
         <v>6</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="4">
         <v>5</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="4">
         <v>7</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="4">
         <v>6</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="4">
         <v>9</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="4">
         <v>11</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="5">
         <v>7</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Diplomarbeit_Timetracking_DominikDanner.xlsx
+++ b/doc/Diplomarbeit_Timetracking_DominikDanner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikdanner/Documents/Linzer Technikum/DiplomArbeit/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98649BD-3085-C74C-9C06-7170C1DBB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05547F64-1517-0547-AFE0-A37E704CB7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>﻿What</t>
   </si>
@@ -222,16 +222,35 @@
   </si>
   <si>
     <t>Febuary 1, 2026</t>
+  </si>
+  <si>
+    <t>Febuary 2, 2026</t>
+  </si>
+  <si>
+    <t>Fixing Bugs in VM Page with Severin</t>
+  </si>
+  <si>
+    <t>Febuary 3, 2026</t>
+  </si>
+  <si>
+    <t>Fixing Bugs in Design on VM page &amp; Made a concept for implementing Schedular Algorithm for Creating Vms in incus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -344,11 +363,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -357,6 +387,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:E35"/>
+  <dimension ref="C2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="144" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -685,8 +717,8 @@
         <v>60</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(D6:D34)</f>
-        <v>136</v>
+        <f>SUM(D6:D37)</f>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1061,28 @@
         <v>62</v>
       </c>
     </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="9">
+        <v>6</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
